--- a/analisis_python/ClusteringResult/cluster_kmeansk=1.xlsx
+++ b/analisis_python/ClusteringResult/cluster_kmeansk=1.xlsx
@@ -414,8 +414,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ASUSTeK Computer Inc.</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -435,16 +437,22 @@
       <c r="G2" t="n">
         <v>28</v>
       </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280L</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Delta DPS-850AB-3 Rev.C</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ASUSTeK Computer Inc.</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -464,16 +472,22 @@
       <c r="G3" t="n">
         <v>28</v>
       </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280L</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Delta DPS-850AB-3 Rev.C</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ASUSTeK Computer Inc.</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -493,16 +507,22 @@
       <c r="G4" t="n">
         <v>28</v>
       </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Delta DPS-850AB-3 Rev.C</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ASUSTeK Computer Inc.</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -522,16 +542,22 @@
       <c r="G5" t="n">
         <v>28</v>
       </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176M</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -551,16 +577,22 @@
       <c r="G6" t="n">
         <v>18</v>
       </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v3 2.30 GHz</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>4</v>
@@ -580,16 +612,22 @@
       <c r="G7" t="n">
         <v>18</v>
       </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v3 2.30 GHz</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -609,16 +647,22 @@
       <c r="G8" t="n">
         <v>6</v>
       </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Intel Xeon E-2176G</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Integrated 250W Bronze Efficiency</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -638,16 +682,22 @@
       <c r="G9" t="n">
         <v>18</v>
       </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v3 2.30 GHz</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Dell p/n KNHJV</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -667,16 +717,22 @@
       <c r="G10" t="n">
         <v>22</v>
       </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v4 2.20 GHz</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Dell p/n KNHJV</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -696,16 +752,22 @@
       <c r="G11" t="n">
         <v>28</v>
       </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50 GHz</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Dell p/n KNHJV</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -725,16 +787,22 @@
       <c r="G12" t="n">
         <v>18</v>
       </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v3 2.30 GHz</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Dell p/n KNHJV</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -754,16 +822,22 @@
       <c r="G13" t="n">
         <v>22</v>
       </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v4 2.20 GHz</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Dell p/n KNHJV</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -783,16 +857,22 @@
       <c r="G14" t="n">
         <v>22</v>
       </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v4 2.20 GHz</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Dell p/n KNHJV</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>2</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -812,16 +892,22 @@
       <c r="G15" t="n">
         <v>28</v>
       </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50 GHz</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Dell p/n KNHJV</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>2</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -841,16 +927,22 @@
       <c r="G16" t="n">
         <v>28</v>
       </c>
-      <c r="H16" t="n">
-        <v>11</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280, 2.70 GHz</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>750W Titanium, Dell SKU [450-ADWU]</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>2</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -870,16 +962,22 @@
       <c r="G17" t="n">
         <v>32</v>
       </c>
-      <c r="H17" t="n">
-        <v>12</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7601 2.20 GHz, Dell SKU [338-BNCG]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Dell SKU [450-ADWR]</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>2</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -899,16 +997,22 @@
       <c r="G18" t="n">
         <v>32</v>
       </c>
-      <c r="H18" t="n">
-        <v>13</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7601 2.20 GHz</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Dell p/n Y26KX</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>2</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -928,16 +1032,22 @@
       <c r="G19" t="n">
         <v>22</v>
       </c>
-      <c r="H19" t="n">
-        <v>15</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-4669 v4 2.20 GHz</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Dell p/n 95HR5</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>2</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -957,16 +1067,22 @@
       <c r="G20" t="n">
         <v>28</v>
       </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50 GHz</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Dell SKU 450-AFMR</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>2</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -986,16 +1102,22 @@
       <c r="G21" t="n">
         <v>28</v>
       </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50 GHz</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Dell SKU 450-AFMR</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>2</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1015,16 +1137,22 @@
       <c r="G22" t="n">
         <v>28</v>
       </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50 GHz</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Dell p/n T94HP</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>2</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1044,16 +1172,22 @@
       <c r="G23" t="n">
         <v>18</v>
       </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>7</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v3 2.30 GHz</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Dell p/n KNHJV</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>2</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -1073,16 +1207,22 @@
       <c r="G24" t="n">
         <v>28</v>
       </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-      <c r="I24" t="n">
-        <v>17</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50 GHz</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Dell P/N KNHJV</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>3</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>4</v>
@@ -1102,16 +1242,22 @@
       <c r="G25" t="n">
         <v>24</v>
       </c>
-      <c r="H25" t="n">
-        <v>16</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 6252</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>3</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1131,16 +1277,22 @@
       <c r="G26" t="n">
         <v>4</v>
       </c>
-      <c r="H26" t="n">
-        <v>18</v>
-      </c>
-      <c r="I26" t="n">
-        <v>19</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Intel Xeon E3-1275Lv3</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26361-K1537-V101</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>3</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -1160,16 +1312,22 @@
       <c r="G27" t="n">
         <v>4</v>
       </c>
-      <c r="H27" t="n">
-        <v>19</v>
-      </c>
-      <c r="I27" t="n">
-        <v>20</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Intel Xeon E3-1260L v5</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1550-V101</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>3</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -1189,16 +1347,22 @@
       <c r="G28" t="n">
         <v>4</v>
       </c>
-      <c r="H28" t="n">
-        <v>20</v>
-      </c>
-      <c r="I28" t="n">
-        <v>21</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Intel Xeon E3-1230 v6</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1600-V101</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>3</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1218,16 +1382,22 @@
       <c r="G29" t="n">
         <v>6</v>
       </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-      <c r="I29" t="n">
-        <v>22</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Intel Xeon E-2176G</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1640-V101</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>3</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1247,16 +1417,22 @@
       <c r="G30" t="n">
         <v>8</v>
       </c>
-      <c r="H30" t="n">
-        <v>21</v>
-      </c>
-      <c r="I30" t="n">
-        <v>23</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Intel Xeon E-2288G</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>S26113-F575-E13</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>3</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1276,16 +1452,22 @@
       <c r="G31" t="n">
         <v>18</v>
       </c>
-      <c r="H31" t="n">
-        <v>22</v>
-      </c>
-      <c r="I31" t="n">
-        <v>24</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Intel Xeon Gold 5220</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-F574-E13</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>3</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1305,16 +1487,22 @@
       <c r="G32" t="n">
         <v>18</v>
       </c>
-      <c r="H32" t="n">
-        <v>23</v>
-      </c>
-      <c r="I32" t="n">
-        <v>25</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v3</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-F615-E10</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>3</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -1334,16 +1522,22 @@
       <c r="G33" t="n">
         <v>22</v>
       </c>
-      <c r="H33" t="n">
-        <v>24</v>
-      </c>
-      <c r="I33" t="n">
-        <v>25</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v4</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-F615-E10</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>3</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1363,16 +1557,22 @@
       <c r="G34" t="n">
         <v>28</v>
       </c>
-      <c r="H34" t="n">
-        <v>25</v>
-      </c>
-      <c r="I34" t="n">
-        <v>25</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8276L</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-F615-E10</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>3</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1392,16 +1592,22 @@
       <c r="G35" t="n">
         <v>22</v>
       </c>
-      <c r="H35" t="n">
-        <v>24</v>
-      </c>
-      <c r="I35" t="n">
-        <v>25</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v4</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-F615-E10</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>3</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1421,16 +1627,22 @@
       <c r="G36" t="n">
         <v>28</v>
       </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-      <c r="I36" t="n">
-        <v>25</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176M</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-F615-E10</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>3</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1450,16 +1662,22 @@
       <c r="G37" t="n">
         <v>28</v>
       </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>25</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280L</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-F615-E10</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>3</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1479,16 +1697,22 @@
       <c r="G38" t="n">
         <v>28</v>
       </c>
-      <c r="H38" t="n">
-        <v>25</v>
-      </c>
-      <c r="I38" t="n">
-        <v>25</v>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8276L</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-F615-E10</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>3</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1508,16 +1732,22 @@
       <c r="G39" t="n">
         <v>18</v>
       </c>
-      <c r="H39" t="n">
-        <v>23</v>
-      </c>
-      <c r="I39" t="n">
-        <v>25</v>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v3</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-F615-E10</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>3</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1537,16 +1767,22 @@
       <c r="G40" t="n">
         <v>22</v>
       </c>
-      <c r="H40" t="n">
-        <v>24</v>
-      </c>
-      <c r="I40" t="n">
-        <v>25</v>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v4</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-F615-E10</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>3</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1566,16 +1802,22 @@
       <c r="G41" t="n">
         <v>28</v>
       </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-      <c r="I41" t="n">
-        <v>26</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176M</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1587-V100</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>3</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -1595,16 +1837,22 @@
       <c r="G42" t="n">
         <v>28</v>
       </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-      <c r="I42" t="n">
-        <v>26</v>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176M</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1587-V100</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>3</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -1624,16 +1872,22 @@
       <c r="G43" t="n">
         <v>28</v>
       </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-      <c r="I43" t="n">
-        <v>26</v>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176M</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1587-V100</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>3</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1653,16 +1907,22 @@
       <c r="G44" t="n">
         <v>28</v>
       </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>27</v>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280L</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1657-V300</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>3</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -1682,16 +1942,22 @@
       <c r="G45" t="n">
         <v>28</v>
       </c>
-      <c r="H45" t="n">
-        <v>25</v>
-      </c>
-      <c r="I45" t="n">
-        <v>28</v>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8276L</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1587-V200</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>3</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -1711,16 +1977,22 @@
       <c r="G46" t="n">
         <v>4</v>
       </c>
-      <c r="H46" t="n">
-        <v>18</v>
-      </c>
-      <c r="I46" t="n">
-        <v>29</v>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Intel Xeon E3-1275Lv3</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-E565-V70-01</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>3</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1740,16 +2012,22 @@
       <c r="G47" t="n">
         <v>4</v>
       </c>
-      <c r="H47" t="n">
-        <v>19</v>
-      </c>
-      <c r="I47" t="n">
-        <v>30</v>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Intel Xeon E3-1260L v5</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-E564-V71-01</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>3</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1769,16 +2047,22 @@
       <c r="G48" t="n">
         <v>4</v>
       </c>
-      <c r="H48" t="n">
-        <v>20</v>
-      </c>
-      <c r="I48" t="n">
-        <v>31</v>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Intel Xeon E3-1230 v6</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1591-V201</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>3</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -1798,16 +2082,22 @@
       <c r="G49" t="n">
         <v>6</v>
       </c>
-      <c r="H49" t="n">
-        <v>8</v>
-      </c>
-      <c r="I49" t="n">
-        <v>32</v>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Intel Xeon E-2176G</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1638-V201</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>3</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1827,16 +2117,22 @@
       <c r="G50" t="n">
         <v>6</v>
       </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-      <c r="I50" t="n">
-        <v>32</v>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Intel Xeon E-2176G</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1638-V201</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>3</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1856,16 +2152,22 @@
       <c r="G51" t="n">
         <v>8</v>
       </c>
-      <c r="H51" t="n">
-        <v>21</v>
-      </c>
-      <c r="I51" t="n">
-        <v>23</v>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Intel Xeon E-2288G</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>S26113-F575-E13</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>3</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1885,16 +2187,22 @@
       <c r="G52" t="n">
         <v>4</v>
       </c>
-      <c r="H52" t="n">
-        <v>26</v>
-      </c>
-      <c r="I52" t="n">
-        <v>33</v>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Intel Xeon E3-1240L v5</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1552-V101</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>3</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1914,16 +2222,22 @@
       <c r="G53" t="n">
         <v>4</v>
       </c>
-      <c r="H53" t="n">
-        <v>20</v>
-      </c>
-      <c r="I53" t="n">
-        <v>34</v>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Intel Xeon E3-1230 v6</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1601-V101</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>3</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1943,16 +2257,22 @@
       <c r="G54" t="n">
         <v>8</v>
       </c>
-      <c r="H54" t="n">
-        <v>21</v>
-      </c>
-      <c r="I54" t="n">
-        <v>35</v>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Intel Xeon E-2288G</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1639-V101</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>3</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1972,16 +2292,22 @@
       <c r="G55" t="n">
         <v>6</v>
       </c>
-      <c r="H55" t="n">
-        <v>8</v>
-      </c>
-      <c r="I55" t="n">
-        <v>35</v>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Intel Xeon E-2176G</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Standard power supply part of base unit S26361-K1639-V101</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>3</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -2001,16 +2327,22 @@
       <c r="G56" t="n">
         <v>24</v>
       </c>
-      <c r="H56" t="n">
-        <v>27</v>
-      </c>
-      <c r="I56" t="n">
-        <v>24</v>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Intel Xeon Gold 6252 Processor</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-F574-E13</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>3</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -2030,16 +2362,22 @@
       <c r="G57" t="n">
         <v>18</v>
       </c>
-      <c r="H57" t="n">
-        <v>23</v>
-      </c>
-      <c r="I57" t="n">
-        <v>25</v>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v3</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-F615-E10</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>3</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -2059,16 +2397,22 @@
       <c r="G58" t="n">
         <v>22</v>
       </c>
-      <c r="H58" t="n">
-        <v>24</v>
-      </c>
-      <c r="I58" t="n">
-        <v>25</v>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v4</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Fujitsu Technology Solutions S26113-F615-E10</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>4</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>GIGA-BYTE TECHNOLOGY CO., LTD.</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -2088,16 +2432,22 @@
       <c r="G59" t="n">
         <v>32</v>
       </c>
-      <c r="H59" t="n">
-        <v>28</v>
-      </c>
-      <c r="I59" t="n">
-        <v>36</v>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7601</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>DELTA DPS-850AB-3 A</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>5</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>H3C</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -2117,16 +2467,22 @@
       <c r="G60" t="n">
         <v>22</v>
       </c>
-      <c r="H60" t="n">
-        <v>24</v>
-      </c>
-      <c r="I60" t="n">
-        <v>38</v>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v4</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>ASPOWER P/N 0213A05N</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>6</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -2146,16 +2502,22 @@
       <c r="G61" t="n">
         <v>32</v>
       </c>
-      <c r="H61" t="n">
-        <v>32</v>
-      </c>
-      <c r="I61" t="n">
-        <v>40</v>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7551P 2.0 GHz</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>6</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2175,16 +2537,22 @@
       <c r="G62" t="n">
         <v>28</v>
       </c>
-      <c r="H62" t="n">
-        <v>33</v>
-      </c>
-      <c r="I62" t="n">
-        <v>41</v>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply 96% (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>6</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -2204,16 +2572,22 @@
       <c r="G63" t="n">
         <v>28</v>
       </c>
-      <c r="H63" t="n">
-        <v>34</v>
-      </c>
-      <c r="I63" t="n">
-        <v>41</v>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply 96% (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>6</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -2233,16 +2607,22 @@
       <c r="G64" t="n">
         <v>28</v>
       </c>
-      <c r="H64" t="n">
-        <v>35</v>
-      </c>
-      <c r="I64" t="n">
-        <v>41</v>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply 96% (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>6</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -2262,16 +2642,22 @@
       <c r="G65" t="n">
         <v>28</v>
       </c>
-      <c r="H65" t="n">
-        <v>35</v>
-      </c>
-      <c r="I65" t="n">
-        <v>41</v>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply 96% (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>6</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -2291,16 +2677,22 @@
       <c r="G66" t="n">
         <v>28</v>
       </c>
-      <c r="H66" t="n">
-        <v>35</v>
-      </c>
-      <c r="I66" t="n">
-        <v>42</v>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>DPS-800AB (865438-B21) 96%</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>6</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -2320,16 +2712,22 @@
       <c r="G67" t="n">
         <v>28</v>
       </c>
-      <c r="H67" t="n">
-        <v>35</v>
-      </c>
-      <c r="I67" t="n">
-        <v>42</v>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>DPS-800AB (865438-B21) 96%</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>6</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -2349,16 +2747,22 @@
       <c r="G68" t="n">
         <v>28</v>
       </c>
-      <c r="H68" t="n">
-        <v>35</v>
-      </c>
-      <c r="I68" t="n">
-        <v>42</v>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>DPS-800AB (865438-B21) 96%</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>6</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -2378,16 +2782,22 @@
       <c r="G69" t="n">
         <v>18</v>
       </c>
-      <c r="H69" t="n">
-        <v>5</v>
-      </c>
-      <c r="I69" t="n">
-        <v>43</v>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v3 2.30 GHz</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>HP 800W Flex Slot Titanium Hot Plug Power Supply Kit (720482-B21)</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>6</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -2407,16 +2817,22 @@
       <c r="G70" t="n">
         <v>28</v>
       </c>
-      <c r="H70" t="n">
-        <v>35</v>
-      </c>
-      <c r="I70" t="n">
-        <v>41</v>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply 96% (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>6</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -2436,16 +2852,22 @@
       <c r="G71" t="n">
         <v>32</v>
       </c>
-      <c r="H71" t="n">
-        <v>13</v>
-      </c>
-      <c r="I71" t="n">
-        <v>40</v>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7601 2.20 GHz</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>6</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -2465,16 +2887,22 @@
       <c r="G72" t="n">
         <v>32</v>
       </c>
-      <c r="H72" t="n">
-        <v>13</v>
-      </c>
-      <c r="I72" t="n">
-        <v>40</v>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7601 2.20 GHz</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>6</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -2494,16 +2922,22 @@
       <c r="G73" t="n">
         <v>28</v>
       </c>
-      <c r="H73" t="n">
-        <v>34</v>
-      </c>
-      <c r="I73" t="n">
-        <v>44</v>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit 96% (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>6</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -2523,16 +2957,22 @@
       <c r="G74" t="n">
         <v>28</v>
       </c>
-      <c r="H74" t="n">
-        <v>36</v>
-      </c>
-      <c r="I74" t="n">
-        <v>44</v>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit 96% (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>6</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -2552,16 +2992,22 @@
       <c r="G75" t="n">
         <v>28</v>
       </c>
-      <c r="H75" t="n">
-        <v>35</v>
-      </c>
-      <c r="I75" t="n">
-        <v>45</v>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>HPE DPS-800AB-35 A 96% (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>6</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -2581,16 +3027,22 @@
       <c r="G76" t="n">
         <v>28</v>
       </c>
-      <c r="H76" t="n">
-        <v>35</v>
-      </c>
-      <c r="I76" t="n">
-        <v>45</v>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>HPE DPS-800AB-35 A 96% (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>6</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -2610,16 +3062,22 @@
       <c r="G77" t="n">
         <v>28</v>
       </c>
-      <c r="H77" t="n">
-        <v>35</v>
-      </c>
-      <c r="I77" t="n">
-        <v>45</v>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>HPE DPS-800AB-35 A 96% (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>6</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -2639,16 +3097,22 @@
       <c r="G78" t="n">
         <v>18</v>
       </c>
-      <c r="H78" t="n">
-        <v>37</v>
-      </c>
-      <c r="I78" t="n">
-        <v>46</v>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-4669 v3 2.10 GHz</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>HPE 656364-B21</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>6</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -2668,16 +3132,22 @@
       <c r="G79" t="n">
         <v>28</v>
       </c>
-      <c r="H79" t="n">
-        <v>36</v>
-      </c>
-      <c r="I79" t="n">
-        <v>47</v>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>HPE 1600W Flex Slot Platinum Hot Plug Low Halogen Power Supply Kit 94% (830272-B21)</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>6</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -2697,16 +3167,22 @@
       <c r="G80" t="n">
         <v>28</v>
       </c>
-      <c r="H80" t="n">
-        <v>34</v>
-      </c>
-      <c r="I80" t="n">
-        <v>47</v>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>HPE 1600W Flex Slot Platinum Hot Plug Low Halogen Power Supply Kit 94% (830272-B21)</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>6</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -2726,16 +3202,22 @@
       <c r="G81" t="n">
         <v>28</v>
       </c>
-      <c r="H81" t="n">
-        <v>35</v>
-      </c>
-      <c r="I81" t="n">
-        <v>48</v>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>HSTNS-PR62 (830272-B21)</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>6</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -2755,16 +3237,22 @@
       <c r="G82" t="n">
         <v>28</v>
       </c>
-      <c r="H82" t="n">
-        <v>33</v>
-      </c>
-      <c r="I82" t="n">
-        <v>44</v>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit 96% (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>6</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -2784,16 +3272,22 @@
       <c r="G83" t="n">
         <v>28</v>
       </c>
-      <c r="H83" t="n">
-        <v>34</v>
-      </c>
-      <c r="I83" t="n">
-        <v>44</v>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit 96% (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>6</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -2813,16 +3307,22 @@
       <c r="G84" t="n">
         <v>28</v>
       </c>
-      <c r="H84" t="n">
-        <v>35</v>
-      </c>
-      <c r="I84" t="n">
-        <v>49</v>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titatinum Hot Plug Low Halogen Power Supply Kit (865438-B21) 96%</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>6</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -2842,16 +3342,22 @@
       <c r="G85" t="n">
         <v>28</v>
       </c>
-      <c r="H85" t="n">
-        <v>35</v>
-      </c>
-      <c r="I85" t="n">
-        <v>42</v>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>DPS-800AB (865438-B21) 96%</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>6</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B86" t="n">
         <v>5</v>
@@ -2871,16 +3377,22 @@
       <c r="G86" t="n">
         <v>28</v>
       </c>
-      <c r="H86" t="n">
-        <v>34</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>6</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B87" t="n">
         <v>4</v>
@@ -2900,16 +3412,22 @@
       <c r="G87" t="n">
         <v>28</v>
       </c>
-      <c r="H87" t="n">
-        <v>34</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5</v>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>6</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B88" t="n">
         <v>3</v>
@@ -2929,16 +3447,22 @@
       <c r="G88" t="n">
         <v>28</v>
       </c>
-      <c r="H88" t="n">
-        <v>34</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5</v>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>6</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B89" t="n">
         <v>2</v>
@@ -2958,16 +3482,22 @@
       <c r="G89" t="n">
         <v>28</v>
       </c>
-      <c r="H89" t="n">
-        <v>34</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5</v>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>6</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B90" t="n">
         <v>5</v>
@@ -2987,16 +3517,22 @@
       <c r="G90" t="n">
         <v>28</v>
       </c>
-      <c r="H90" t="n">
-        <v>33</v>
-      </c>
-      <c r="I90" t="n">
-        <v>5</v>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>6</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B91" t="n">
         <v>2</v>
@@ -3016,16 +3552,22 @@
       <c r="G91" t="n">
         <v>28</v>
       </c>
-      <c r="H91" t="n">
-        <v>34</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5</v>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz (Intel Turbo Boost Technology up to 4.00 GHz)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>6</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B92" t="n">
         <v>2</v>
@@ -3045,16 +3587,22 @@
       <c r="G92" t="n">
         <v>28</v>
       </c>
-      <c r="H92" t="n">
-        <v>33</v>
-      </c>
-      <c r="I92" t="n">
-        <v>5</v>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 @ 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>6</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B93" t="n">
         <v>2</v>
@@ -3074,16 +3622,22 @@
       <c r="G93" t="n">
         <v>28</v>
       </c>
-      <c r="H93" t="n">
-        <v>35</v>
-      </c>
-      <c r="I93" t="n">
-        <v>4</v>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>6</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -3103,16 +3657,22 @@
       <c r="G94" t="n">
         <v>18</v>
       </c>
-      <c r="H94" t="n">
-        <v>37</v>
-      </c>
-      <c r="I94" t="n">
-        <v>50</v>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-4669 v3 2.10 GHz</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>656364-B21</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>7</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -3132,16 +3692,22 @@
       <c r="G95" t="n">
         <v>28</v>
       </c>
-      <c r="H95" t="n">
-        <v>38</v>
-      </c>
-      <c r="I95" t="n">
-        <v>51</v>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Huawei P/N 02312DEP</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>7</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -3161,16 +3727,22 @@
       <c r="G96" t="n">
         <v>28</v>
       </c>
-      <c r="H96" t="n">
-        <v>38</v>
-      </c>
-      <c r="I96" t="n">
-        <v>51</v>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Huawei P/N 02312DEP</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>7</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -3190,16 +3762,22 @@
       <c r="G97" t="n">
         <v>28</v>
       </c>
-      <c r="H97" t="n">
-        <v>38</v>
-      </c>
-      <c r="I97" t="n">
-        <v>51</v>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Huawei P/N 02312DEP</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>7</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -3219,16 +3797,22 @@
       <c r="G98" t="n">
         <v>28</v>
       </c>
-      <c r="H98" t="n">
-        <v>38</v>
-      </c>
-      <c r="I98" t="n">
-        <v>51</v>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Huawei P/N 02312DEP</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>7</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -3248,16 +3832,22 @@
       <c r="G99" t="n">
         <v>28</v>
       </c>
-      <c r="H99" t="n">
-        <v>3</v>
-      </c>
-      <c r="I99" t="n">
-        <v>52</v>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Huawei P/N 02131255</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>7</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -3277,16 +3867,22 @@
       <c r="G100" t="n">
         <v>28</v>
       </c>
-      <c r="H100" t="n">
-        <v>39</v>
-      </c>
-      <c r="I100" t="n">
-        <v>52</v>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Huawei P/N 02131255</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>7</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -3306,16 +3902,22 @@
       <c r="G101" t="n">
         <v>28</v>
       </c>
-      <c r="H101" t="n">
-        <v>3</v>
-      </c>
-      <c r="I101" t="n">
-        <v>52</v>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Huawei P/N 02131255</t>
+        </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>7</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -3335,16 +3937,22 @@
       <c r="G102" t="n">
         <v>28</v>
       </c>
-      <c r="H102" t="n">
-        <v>38</v>
-      </c>
-      <c r="I102" t="n">
-        <v>53</v>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Huawei P/N 02311TLF</t>
+        </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>7</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -3364,16 +3972,22 @@
       <c r="G103" t="n">
         <v>28</v>
       </c>
-      <c r="H103" t="n">
-        <v>38</v>
-      </c>
-      <c r="I103" t="n">
-        <v>53</v>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Huawei P/N 02311TLF</t>
+        </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>7</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -3393,16 +4007,22 @@
       <c r="G104" t="n">
         <v>20</v>
       </c>
-      <c r="H104" t="n">
-        <v>40</v>
-      </c>
-      <c r="I104" t="n">
-        <v>54</v>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2698 V4</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Huawei P/N 02131167</t>
+        </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>7</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -3422,16 +4042,22 @@
       <c r="G105" t="n">
         <v>18</v>
       </c>
-      <c r="H105" t="n">
-        <v>23</v>
-      </c>
-      <c r="I105" t="n">
-        <v>54</v>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v3</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Huawei P/N 02131167</t>
+        </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>7</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B106" t="n">
         <v>4</v>
@@ -3451,16 +4077,22 @@
       <c r="G106" t="n">
         <v>20</v>
       </c>
-      <c r="H106" t="n">
-        <v>40</v>
-      </c>
-      <c r="I106" t="n">
-        <v>4</v>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2698 V4</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>7</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Huawei Technologies Co., Ltd</t>
+        </is>
       </c>
       <c r="B107" t="n">
         <v>4</v>
@@ -3480,16 +4112,22 @@
       <c r="G107" t="n">
         <v>22</v>
       </c>
-      <c r="H107" t="n">
-        <v>24</v>
-      </c>
-      <c r="I107" t="n">
-        <v>4</v>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v4</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>8</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Inspur Corporation</t>
+        </is>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -3509,16 +4147,22 @@
       <c r="G108" t="n">
         <v>28</v>
       </c>
-      <c r="H108" t="n">
-        <v>42</v>
-      </c>
-      <c r="I108" t="n">
-        <v>55</v>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176 CPU 2.10 GHz (Intel Turbo Boost Technology up to 2.80 GHz)</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Delta DPS-800AB-9X P/N:V07LP0400000000F</t>
+        </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>8</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Inspur Corporation</t>
+        </is>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -3538,16 +4182,22 @@
       <c r="G109" t="n">
         <v>28</v>
       </c>
-      <c r="H109" t="n">
-        <v>36</v>
-      </c>
-      <c r="I109" t="n">
-        <v>56</v>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Delta DPS-550AB-19 B P/N:ZMPS1000105</t>
+        </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>8</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Inspur Corporation</t>
+        </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -3567,16 +4217,22 @@
       <c r="G110" t="n">
         <v>28</v>
       </c>
-      <c r="H110" t="n">
-        <v>25</v>
-      </c>
-      <c r="I110" t="n">
-        <v>55</v>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8276L</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Delta DPS-800AB-9X P/N:V07LP0400000000F</t>
+        </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>8</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Inspur Corporation</t>
+        </is>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -3596,16 +4252,22 @@
       <c r="G111" t="n">
         <v>28</v>
       </c>
-      <c r="H111" t="n">
-        <v>3</v>
-      </c>
-      <c r="I111" t="n">
-        <v>55</v>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Delta DPS-800AB-9X P/N:V07LP0400000000F</t>
+        </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>8</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Inspur Corporation</t>
+        </is>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -3625,16 +4287,22 @@
       <c r="G112" t="n">
         <v>28</v>
       </c>
-      <c r="H112" t="n">
-        <v>39</v>
-      </c>
-      <c r="I112" t="n">
-        <v>55</v>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Delta DPS-800AB-9X P/N:V07LP0400000000F</t>
+        </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>8</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Inspur Corporation</t>
+        </is>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -3654,16 +4322,22 @@
       <c r="G113" t="n">
         <v>28</v>
       </c>
-      <c r="H113" t="n">
-        <v>39</v>
-      </c>
-      <c r="I113" t="n">
-        <v>57</v>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>GW-CRPS1200 PN:V07LW020V000300F</t>
+        </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>8</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Inspur Corporation</t>
+        </is>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -3683,16 +4357,22 @@
       <c r="G114" t="n">
         <v>22</v>
       </c>
-      <c r="H114" t="n">
-        <v>24</v>
-      </c>
-      <c r="I114" t="n">
-        <v>55</v>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v4</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Delta DPS-800AB-9X P/N:V07LP0400000000F</t>
+        </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>9</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B115" t="n">
         <v>4</v>
@@ -3712,16 +4392,22 @@
       <c r="G115" t="n">
         <v>28</v>
       </c>
-      <c r="H115" t="n">
-        <v>25</v>
-      </c>
-      <c r="I115" t="n">
-        <v>4</v>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8276L</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>9</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B116" t="n">
         <v>4</v>
@@ -3741,16 +4427,22 @@
       <c r="G116" t="n">
         <v>28</v>
       </c>
-      <c r="H116" t="n">
-        <v>39</v>
-      </c>
-      <c r="I116" t="n">
-        <v>4</v>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>9</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B117" t="n">
         <v>4</v>
@@ -3770,16 +4462,22 @@
       <c r="G117" t="n">
         <v>28</v>
       </c>
-      <c r="H117" t="n">
-        <v>39</v>
-      </c>
-      <c r="I117" t="n">
-        <v>4</v>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>9</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -3799,16 +4497,22 @@
       <c r="G118" t="n">
         <v>6</v>
       </c>
-      <c r="H118" t="n">
-        <v>8</v>
-      </c>
-      <c r="I118" t="n">
-        <v>61</v>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Intel Xeon E-2176G</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>DELTA LN SP57A36869</t>
+        </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>9</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -3828,16 +4532,22 @@
       <c r="G119" t="n">
         <v>28</v>
       </c>
-      <c r="H119" t="n">
-        <v>39</v>
-      </c>
-      <c r="I119" t="n">
-        <v>62</v>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:7N67A00884</t>
+        </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>9</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -3857,16 +4567,22 @@
       <c r="G120" t="n">
         <v>28</v>
       </c>
-      <c r="H120" t="n">
-        <v>39</v>
-      </c>
-      <c r="I120" t="n">
-        <v>62</v>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:7N67A00884</t>
+        </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>9</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -3886,16 +4602,22 @@
       <c r="G121" t="n">
         <v>28</v>
       </c>
-      <c r="H121" t="n">
-        <v>42</v>
-      </c>
-      <c r="I121" t="n">
-        <v>62</v>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176 CPU 2.10 GHz (Intel Turbo Boost Technology up to 2.80 GHz)</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:7N67A00884</t>
+        </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>9</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -3915,16 +4637,22 @@
       <c r="G122" t="n">
         <v>28</v>
       </c>
-      <c r="H122" t="n">
-        <v>42</v>
-      </c>
-      <c r="I122" t="n">
-        <v>62</v>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176 CPU 2.10 GHz (Intel Turbo Boost Technology up to 2.80 GHz)</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:7N67A00884</t>
+        </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>9</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -3944,16 +4672,22 @@
       <c r="G123" t="n">
         <v>28</v>
       </c>
-      <c r="H123" t="n">
-        <v>43</v>
-      </c>
-      <c r="I123" t="n">
-        <v>62</v>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 CPU 2.70 GHz</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:7N67A00884</t>
+        </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>9</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -3973,16 +4707,22 @@
       <c r="G124" t="n">
         <v>28</v>
       </c>
-      <c r="H124" t="n">
-        <v>25</v>
-      </c>
-      <c r="I124" t="n">
-        <v>63</v>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8276L</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:7N67A00883</t>
+        </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>9</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -4002,16 +4742,22 @@
       <c r="G125" t="n">
         <v>28</v>
       </c>
-      <c r="H125" t="n">
-        <v>42</v>
-      </c>
-      <c r="I125" t="n">
-        <v>64</v>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176 CPU 2.10 GHz (Intel Turbo Boost Technology up to 2.80 GHz)</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:7N67A00885</t>
+        </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>9</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -4031,16 +4777,22 @@
       <c r="G126" t="n">
         <v>28</v>
       </c>
-      <c r="H126" t="n">
-        <v>44</v>
-      </c>
-      <c r="I126" t="n">
-        <v>65</v>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8276L CPU 2.20 GHz</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:7N67A00886</t>
+        </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>9</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -4060,16 +4812,22 @@
       <c r="G127" t="n">
         <v>28</v>
       </c>
-      <c r="H127" t="n">
-        <v>25</v>
-      </c>
-      <c r="I127" t="n">
-        <v>64</v>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8276L</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:7N67A00885</t>
+        </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>9</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -4089,16 +4847,22 @@
       <c r="G128" t="n">
         <v>28</v>
       </c>
-      <c r="H128" t="n">
-        <v>39</v>
-      </c>
-      <c r="I128" t="n">
-        <v>66</v>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Lenovo LN SP50L09210</t>
+        </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>10</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -4118,16 +4882,22 @@
       <c r="G129" t="n">
         <v>28</v>
       </c>
-      <c r="H129" t="n">
-        <v>45</v>
-      </c>
-      <c r="I129" t="n">
-        <v>67</v>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280L 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>DELTA PSR850-12A</t>
+        </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>10</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -4147,16 +4917,22 @@
       <c r="G130" t="n">
         <v>28</v>
       </c>
-      <c r="H130" t="n">
-        <v>35</v>
-      </c>
-      <c r="I130" t="n">
-        <v>67</v>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>DELTA PSR850-12A</t>
+        </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>10</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -4176,16 +4952,22 @@
       <c r="G131" t="n">
         <v>28</v>
       </c>
-      <c r="H131" t="n">
-        <v>45</v>
-      </c>
-      <c r="I131" t="n">
-        <v>67</v>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280L 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>DELTA PSR850-12A</t>
+        </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>10</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -4205,16 +4987,22 @@
       <c r="G132" t="n">
         <v>28</v>
       </c>
-      <c r="H132" t="n">
-        <v>35</v>
-      </c>
-      <c r="I132" t="n">
-        <v>67</v>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>DELTA PSR850-12A</t>
+        </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>10</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>New H3C Technologies Co., Ltd.</t>
+        </is>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -4234,16 +5022,22 @@
       <c r="G133" t="n">
         <v>28</v>
       </c>
-      <c r="H133" t="n">
-        <v>46</v>
-      </c>
-      <c r="I133" t="n">
-        <v>68</v>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Intel(R) Xeon(R) Platinum 8180 CPU @2.50GHz</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>DELTA DPS-800AB-9 P/N 0202A1DC</t>
+        </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>11</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Nokia Corporation</t>
+        </is>
       </c>
       <c r="B134" t="n">
         <v>5</v>
@@ -4263,16 +5057,22 @@
       <c r="G134" t="n">
         <v>20</v>
       </c>
-      <c r="H134" t="n">
-        <v>47</v>
-      </c>
-      <c r="I134" t="n">
-        <v>4</v>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Intel(R) Xeon(R) Gold 6210U CPU @ 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>12</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Quanta Computer Inc.</t>
+        </is>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -4292,16 +5092,22 @@
       <c r="G135" t="n">
         <v>22</v>
       </c>
-      <c r="H135" t="n">
-        <v>24</v>
-      </c>
-      <c r="I135" t="n">
-        <v>69</v>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v4</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Quanta P/N 1HY9ZZZ0291</t>
+        </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>12</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Quanta Computer Inc.</t>
+        </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -4321,16 +5127,22 @@
       <c r="G136" t="n">
         <v>28</v>
       </c>
-      <c r="H136" t="n">
-        <v>35</v>
-      </c>
-      <c r="I136" t="n">
-        <v>70</v>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>ARTESYN MC800B6-3-4R-02</t>
+        </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>12</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Quanta Computer Inc.</t>
+        </is>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -4350,16 +5162,22 @@
       <c r="G137" t="n">
         <v>28</v>
       </c>
-      <c r="H137" t="n">
-        <v>48</v>
-      </c>
-      <c r="I137" t="n">
-        <v>70</v>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280L 2.70 GHz</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>ARTESYN MC800B6-3-4R-02</t>
+        </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>12</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Quanta Computer Inc.</t>
+        </is>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -4379,16 +5197,22 @@
       <c r="G138" t="n">
         <v>28</v>
       </c>
-      <c r="H138" t="n">
-        <v>49</v>
-      </c>
-      <c r="I138" t="n">
-        <v>71</v>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50 GHz (Intel Turbo Boost Technology up to 3.8GHz)</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Murata MPS8146</t>
+        </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>12</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Quanta Computer Inc.</t>
+        </is>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -4408,16 +5232,22 @@
       <c r="G139" t="n">
         <v>28</v>
       </c>
-      <c r="H139" t="n">
-        <v>3</v>
-      </c>
-      <c r="I139" t="n">
-        <v>70</v>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>ARTESYN MC800B6-3-4R-02</t>
+        </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>12</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Quanta Computer Inc.</t>
+        </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -4437,16 +5267,22 @@
       <c r="G140" t="n">
         <v>4</v>
       </c>
-      <c r="H140" t="n">
-        <v>50</v>
-      </c>
-      <c r="I140" t="n">
-        <v>72</v>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Intel E3-1260L v5</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Quanta P/N 1HY9ZZZ063C</t>
+        </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>12</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Quanta Computer Inc.</t>
+        </is>
       </c>
       <c r="B141" t="n">
         <v>4</v>
@@ -4466,16 +5302,22 @@
       <c r="G141" t="n">
         <v>28</v>
       </c>
-      <c r="H141" t="n">
-        <v>39</v>
-      </c>
-      <c r="I141" t="n">
-        <v>73</v>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8176</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>13</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Sugon</t>
+        </is>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -4495,16 +5337,22 @@
       <c r="G142" t="n">
         <v>32</v>
       </c>
-      <c r="H142" t="n">
-        <v>28</v>
-      </c>
-      <c r="I142" t="n">
-        <v>74</v>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7601</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Sugon 800W 80 Plus Platinum PSU(P/N:Sugon 33000132)</t>
+        </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>13</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sugon</t>
+        </is>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -4524,16 +5372,22 @@
       <c r="G143" t="n">
         <v>16</v>
       </c>
-      <c r="H143" t="n">
-        <v>51</v>
-      </c>
-      <c r="I143" t="n">
-        <v>75</v>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7351</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>ARTESYN 550W PSU(P/N:CSU550AP-3-200)</t>
+        </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>13</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Sugon</t>
+        </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -4553,16 +5407,22 @@
       <c r="G144" t="n">
         <v>32</v>
       </c>
-      <c r="H144" t="n">
-        <v>52</v>
-      </c>
-      <c r="I144" t="n">
-        <v>75</v>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7501</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>ARTESYN 550W PSU(P/N:CSU550AP-3-200)</t>
+        </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>13</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Sugon</t>
+        </is>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -4582,16 +5442,22 @@
       <c r="G145" t="n">
         <v>14</v>
       </c>
-      <c r="H145" t="n">
-        <v>53</v>
-      </c>
-      <c r="I145" t="n">
-        <v>75</v>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Intel Xeon Gold 5117</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>ARTESYN 550W PSU(P/N:CSU550AP-3-200)</t>
+        </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>13</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Sugon</t>
+        </is>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -4611,16 +5477,22 @@
       <c r="G146" t="n">
         <v>18</v>
       </c>
-      <c r="H146" t="n">
-        <v>54</v>
-      </c>
-      <c r="I146" t="n">
-        <v>75</v>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Intel Xeon Gold 6140</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>ARTESYN 550W PSU(P/N:CSU550AP-3-200)</t>
+        </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>13</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Sugon</t>
+        </is>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -4640,16 +5512,22 @@
       <c r="G147" t="n">
         <v>22</v>
       </c>
-      <c r="H147" t="n">
-        <v>55</v>
-      </c>
-      <c r="I147" t="n">
-        <v>75</v>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Intel Xeon Gold 6152</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>ARTESYN 550W PSU(P/N:CSU550AP-3-200)</t>
+        </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>13</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Sugon</t>
+        </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -4669,16 +5547,22 @@
       <c r="G148" t="n">
         <v>28</v>
       </c>
-      <c r="H148" t="n">
-        <v>3</v>
-      </c>
-      <c r="I148" t="n">
-        <v>75</v>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>ARTESYN 550W PSU(P/N:CSU550AP-3-200)</t>
+        </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>13</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Sugon</t>
+        </is>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -4698,16 +5582,22 @@
       <c r="G149" t="n">
         <v>24</v>
       </c>
-      <c r="H149" t="n">
-        <v>56</v>
-      </c>
-      <c r="I149" t="n">
-        <v>75</v>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8160</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>ARTESYN 550W PSU(P/N:CSU550AP-3-200)</t>
+        </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>13</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Sugon</t>
+        </is>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -4727,16 +5617,22 @@
       <c r="G150" t="n">
         <v>18</v>
       </c>
-      <c r="H150" t="n">
-        <v>5</v>
-      </c>
-      <c r="I150" t="n">
-        <v>76</v>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v3 2.30 GHz</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>GW-CRPS550 PN:1197317</t>
+        </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>13</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Sugon</t>
+        </is>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -4756,16 +5652,22 @@
       <c r="G151" t="n">
         <v>28</v>
       </c>
-      <c r="H151" t="n">
-        <v>57</v>
-      </c>
-      <c r="I151" t="n">
-        <v>77</v>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 @2.50 GHz</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Sugon 800W PSU(SN:33000132)</t>
+        </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>14</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Supermicro Inc.</t>
+        </is>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -4785,16 +5687,22 @@
       <c r="G152" t="n">
         <v>18</v>
       </c>
-      <c r="H152" t="n">
-        <v>23</v>
-      </c>
-      <c r="I152" t="n">
-        <v>78</v>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 v3</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>PWS-704P-1R</t>
+        </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>14</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Supermicro Inc.</t>
+        </is>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -4814,16 +5722,22 @@
       <c r="G153" t="n">
         <v>28</v>
       </c>
-      <c r="H153" t="n">
-        <v>45</v>
-      </c>
-      <c r="I153" t="n">
-        <v>79</v>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280L 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>PWS-751P-1R (S/N:P751PCH16A00814)</t>
+        </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>14</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Supermicro Inc.</t>
+        </is>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -4843,16 +5757,22 @@
       <c r="G154" t="n">
         <v>56</v>
       </c>
-      <c r="H154" t="n">
-        <v>35</v>
-      </c>
-      <c r="I154" t="n">
-        <v>80</v>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8180 2.50GHz</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>PWS-751P-1R</t>
+        </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>14</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Supermicro Inc.</t>
+        </is>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -4872,16 +5792,22 @@
       <c r="G155" t="n">
         <v>4</v>
       </c>
-      <c r="H155" t="n">
-        <v>50</v>
-      </c>
-      <c r="I155" t="n">
-        <v>81</v>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Intel E3-1260L v5</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>PWS-350-1H</t>
+        </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>14</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Supermicro Inc.</t>
+        </is>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -4901,16 +5827,22 @@
       <c r="G156" t="n">
         <v>4</v>
       </c>
-      <c r="H156" t="n">
-        <v>58</v>
-      </c>
-      <c r="I156" t="n">
-        <v>81</v>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Intel E3-1270 v5</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>PWS-350-1H</t>
+        </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>14</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Supermicro Inc.</t>
+        </is>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -4930,16 +5862,22 @@
       <c r="G157" t="n">
         <v>4</v>
       </c>
-      <c r="H157" t="n">
-        <v>50</v>
-      </c>
-      <c r="I157" t="n">
-        <v>82</v>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Intel E3-1260L v5</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>PWS-407P-1R</t>
+        </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>14</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Supermicro Inc.</t>
+        </is>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -4959,16 +5897,22 @@
       <c r="G158" t="n">
         <v>18</v>
       </c>
-      <c r="H158" t="n">
-        <v>59</v>
-      </c>
-      <c r="I158" t="n">
-        <v>83</v>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Intel Xeon E5-2699 V3</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>PWS-982-1R</t>
+        </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>14</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Supermicro Inc.</t>
+        </is>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -4988,16 +5932,22 @@
       <c r="G159" t="n">
         <v>32</v>
       </c>
-      <c r="H159" t="n">
-        <v>61</v>
-      </c>
-      <c r="I159" t="n">
-        <v>85</v>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7501 2.0 GHz</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>PWS-1K02A-1R (P/N:P1K0ACI15LN1014)</t>
+        </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>14</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Supermicro Inc.</t>
+        </is>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -5017,16 +5967,22 @@
       <c r="G160" t="n">
         <v>28</v>
       </c>
-      <c r="H160" t="n">
-        <v>36</v>
-      </c>
-      <c r="I160" t="n">
-        <v>86</v>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8280 2.70GHz</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>PWS-802A-1R (S/N:P802ACH19A00324)</t>
+        </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>14</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Supermicro Inc.</t>
+        </is>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -5046,11 +6002,15 @@
       <c r="G161" t="n">
         <v>28</v>
       </c>
-      <c r="H161" t="n">
-        <v>62</v>
-      </c>
-      <c r="I161" t="n">
-        <v>86</v>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Intel Xeon Platinum 8276M 2.20GHz</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>PWS-802A-1R (S/N:P802ACH19A00324)</t>
+        </is>
       </c>
     </row>
   </sheetData>
